--- a/preguntas/estructura/2021.xlsx
+++ b/preguntas/estructura/2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Maquina" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="196">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -42,6 +42,9 @@
     <t xml:space="preserve">Pregunta</t>
   </si>
   <si>
+    <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
     <t xml:space="preserve">IIP2021</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pregunta 1. Desde su creación hasta el 31 de diciembre de 2020, ¿existen acuerdos y/o actos administrativos de su entidad relacionados con el concepto de innovación pública?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
   </si>
   <si>
     <t xml:space="preserve">Indicador 2. Planeación Estratégica: Existencia dentro de la planeación estratégica de la institución de una relación con el concepto de innovación pública</t>
@@ -714,12 +720,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -845,13 +851,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="20.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.95"/>
@@ -874,685 +880,808 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="114.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>36</v>
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>38</v>
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>40</v>
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="D19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>45</v>
+      <c r="A20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>47</v>
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="A22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="D22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="A24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="D24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>58</v>
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>60</v>
+      <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="A28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="D28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>69</v>
+      <c r="A29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="A30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="D30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="A31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="D31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>77</v>
+      <c r="A32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="A33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="D33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>83</v>
+      <c r="A34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="D35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>88</v>
+      <c r="A36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>90</v>
+      <c r="A37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>92</v>
+      <c r="A38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>94</v>
+      <c r="A39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>96</v>
+      <c r="A40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="A41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>99</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1571,18 +1700,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="5" width="9.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="4" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1598,433 +1727,556 @@
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="114.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>103</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>105</v>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>109</v>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>111</v>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>112</v>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>115</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>116</v>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>118</v>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>119</v>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>122</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>123</v>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>124</v>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>128</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>130</v>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>132</v>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>134</v>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>137</v>
       </c>
+      <c r="C19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>139</v>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>141</v>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>144</v>
       </c>
+      <c r="C22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="C23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
         <v>150</v>
       </c>
+      <c r="C24" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>152</v>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>154</v>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="C27" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
         <v>161</v>
       </c>
+      <c r="C28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>163</v>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
         <v>166</v>
       </c>
+      <c r="C30" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="C31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>171</v>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>175</v>
       </c>
+      <c r="C33" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>177</v>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
         <v>180</v>
       </c>
+      <c r="C35" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>182</v>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>184</v>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>186</v>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>188</v>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>190</v>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
         <v>193</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas/estructura/2021.xlsx
+++ b/preguntas/estructura/2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="197">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight</t>
   </si>
   <si>
     <t xml:space="preserve">IIP2021</t>
@@ -619,8 +622,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -703,7 +707,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -726,6 +730,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -851,10 +867,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -883,806 +899,840 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="114.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G43" s="6"/>
+    </row>
+    <row r="55" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G55" s="6"/>
+    </row>
+    <row r="60" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G60" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G62" s="7"/>
+    </row>
+    <row r="64" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G64" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1733,47 +1783,47 @@
     </row>
     <row r="2" customFormat="false" ht="114.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,23 +1831,23 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,25 +1855,25 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,23 +1881,23 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,25 +1905,25 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,10 +1931,10 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,391 +1942,391 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas/estructura/2021.xlsx
+++ b/preguntas/estructura/2021.xlsx
@@ -622,9 +622,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -707,7 +708,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -732,16 +733,20 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -869,8 +874,8 @@
   </sheetPr>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H13:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -899,7 +904,7 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -922,7 +927,9 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -943,7 +950,9 @@
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -964,7 +973,9 @@
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -985,6 +996,9 @@
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -1005,7 +1019,9 @@
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -1026,6 +1042,9 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G7" s="7" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -1046,7 +1065,9 @@
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
@@ -1067,6 +1088,9 @@
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G9" s="7" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -1087,7 +1111,9 @@
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -1108,6 +1134,9 @@
       <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G11" s="7" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -1128,7 +1157,9 @@
       <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="6" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
@@ -1149,7 +1180,9 @@
       <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -1170,7 +1203,9 @@
       <c r="F14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="6" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -1191,7 +1226,9 @@
       <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -1212,6 +1249,9 @@
       <c r="F16" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G16" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
@@ -1232,6 +1272,9 @@
       <c r="F17" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G17" s="7" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -1252,6 +1295,9 @@
       <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G18" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -1272,7 +1318,9 @@
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -1293,6 +1341,9 @@
       <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G20" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -1313,7 +1364,9 @@
       <c r="F21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -1334,6 +1387,9 @@
       <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G22" s="7" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
@@ -1354,6 +1410,9 @@
       <c r="F23" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G23" s="7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
@@ -1374,6 +1433,9 @@
       <c r="F24" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G24" s="7" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
@@ -1394,6 +1456,9 @@
       <c r="F25" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G25" s="7" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
@@ -1414,6 +1479,9 @@
       <c r="F26" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G26" s="7" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
@@ -1434,7 +1502,9 @@
       <c r="F27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="6"/>
+      <c r="G27" s="6" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
@@ -1455,6 +1525,9 @@
       <c r="F28" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G28" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
@@ -1475,6 +1548,9 @@
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G29" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
@@ -1495,6 +1571,9 @@
       <c r="F30" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G30" s="7" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
@@ -1515,7 +1594,9 @@
       <c r="F31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
@@ -1536,6 +1617,9 @@
       <c r="F32" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G32" s="7" t="n">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
@@ -1556,6 +1640,9 @@
       <c r="F33" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G33" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
@@ -1576,6 +1663,9 @@
       <c r="F34" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G34" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
@@ -1596,7 +1686,9 @@
       <c r="F35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="6" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
@@ -1617,6 +1709,9 @@
       <c r="F36" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G36" s="7" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
@@ -1637,6 +1732,9 @@
       <c r="F37" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G37" s="7" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
@@ -1657,6 +1755,9 @@
       <c r="F38" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G38" s="7" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
@@ -1677,7 +1778,9 @@
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="6"/>
+      <c r="G39" s="7" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
@@ -1698,6 +1801,9 @@
       <c r="F40" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G40" s="7" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
@@ -1718,21 +1824,24 @@
       <c r="F41" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G41" s="7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G43" s="6"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G55" s="6"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G60" s="7"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G62" s="7"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G64" s="7"/>
+      <c r="G64" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1752,8 +1861,8 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/preguntas/estructura/2021.xlsx
+++ b/preguntas/estructura/2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="223">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t xml:space="preserve">Subpregunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ws</t>
   </si>
   <si>
     <t xml:space="preserve">IIP2021</t>
@@ -780,7 +786,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -821,16 +827,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -970,8 +968,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M36" activeCellId="0" sqref="M36:M37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1021,39 +1019,39 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="114.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" s="7" t="n">
         <v>0</v>
@@ -1064,31 +1062,31 @@
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" s="7" t="n">
         <v>4</v>
@@ -1099,31 +1097,31 @@
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="7" t="n">
         <v>1</v>
@@ -1134,31 +1132,31 @@
     </row>
     <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" s="9" t="n">
         <v>3</v>
@@ -1169,31 +1167,31 @@
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="n">
         <v>3.7</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J6" s="7" t="n">
         <v>1</v>
@@ -1204,31 +1202,31 @@
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>3.7</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J7" s="9" t="n">
         <v>2.7</v>
@@ -1239,31 +1237,31 @@
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="n">
         <v>4.7</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J8" s="7" t="n">
         <v>2</v>
@@ -1274,31 +1272,31 @@
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>4.7</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" s="9" t="n">
         <v>2.7</v>
@@ -1309,31 +1307,31 @@
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J10" s="7" t="n">
         <v>1.5</v>
@@ -1344,31 +1342,31 @@
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J11" s="9" t="n">
         <v>2.5</v>
@@ -1379,31 +1377,31 @@
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>4.6</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" s="7" t="n">
         <v>4.6</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J12" s="7" t="n">
         <v>2.1</v>
@@ -1414,31 +1412,31 @@
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>4.6</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>4.6</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J13" s="7" t="n">
         <v>1</v>
@@ -1449,31 +1447,31 @@
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>4.6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>4.6</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J14" s="7" t="n">
         <v>1.5</v>
@@ -1484,66 +1482,66 @@
     </row>
     <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="E15" s="9" t="n">
         <v>9</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="11" t="n">
+        <v>43</v>
+      </c>
+      <c r="G15" s="10" t="n">
         <v>2.8</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" s="10" t="n">
         <v>2.8</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="11"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="E16" s="9" t="n">
         <v>9</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J16" s="9" t="n">
         <v>1</v>
@@ -1554,40 +1552,40 @@
     </row>
     <row r="17" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="E17" s="9" t="n">
         <v>9</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>2.8</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J17" s="9" t="n">
         <v>2.8</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M17" s="9" t="n">
         <v>2.8</v>
@@ -1595,31 +1593,31 @@
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="E18" s="9" t="n">
         <v>9</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G18" s="9" t="n">
         <v>2.4</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J18" s="9" t="n">
         <v>2.4</v>
@@ -1630,40 +1628,40 @@
     </row>
     <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="n">
         <v>3</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J19" s="7" t="n">
         <v>3</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M19" s="7" t="n">
         <v>3</v>
@@ -1671,40 +1669,40 @@
     </row>
     <row r="20" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J20" s="9" t="n">
         <v>3</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M20" s="9" t="n">
         <v>3</v>
@@ -1712,31 +1710,31 @@
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="n">
         <v>2</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J21" s="7" t="n">
         <v>2</v>
@@ -1744,44 +1742,44 @@
       <c r="K21" s="5"/>
       <c r="L21" s="8"/>
       <c r="M21" s="7"/>
-      <c r="O21" s="12"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J22" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M22" s="9" t="n">
         <v>1.4</v>
@@ -1789,40 +1787,40 @@
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G23" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J23" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M23" s="9" t="n">
         <v>1.4</v>
@@ -1830,40 +1828,40 @@
     </row>
     <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G24" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J24" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M24" s="9" t="n">
         <v>0</v>
@@ -1871,40 +1869,40 @@
     </row>
     <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G25" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J25" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M25" s="9" t="n">
         <v>0</v>
@@ -1912,40 +1910,40 @@
     </row>
     <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G26" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J26" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M26" s="9" t="n">
         <v>0</v>
@@ -1953,40 +1951,40 @@
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G27" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J27" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M27" s="9" t="n">
         <v>1.4</v>
@@ -1994,40 +1992,40 @@
     </row>
     <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G28" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J28" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M28" s="9" t="n">
         <v>1.4</v>
@@ -2035,40 +2033,40 @@
     </row>
     <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G29" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J29" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M29" s="9" t="n">
         <v>1.4</v>
@@ -2076,40 +2074,40 @@
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G30" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J30" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0</v>
@@ -2117,40 +2115,40 @@
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G31" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J31" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M31" s="9" t="n">
         <v>0</v>
@@ -2158,31 +2156,31 @@
     </row>
     <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G32" s="9" t="n">
         <v>6</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J32" s="9" t="n">
         <v>6</v>
@@ -2193,31 +2191,31 @@
     </row>
     <row r="33" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G33" s="9" t="n">
         <v>2.8</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J33" s="9" t="n">
         <v>2.8</v>
@@ -2228,31 +2226,31 @@
     </row>
     <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G34" s="9" t="n">
         <v>1.1</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J34" s="9" t="n">
         <v>1.1</v>
@@ -2263,31 +2261,31 @@
     </row>
     <row r="35" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G35" s="9" t="n">
         <v>1.1</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J35" s="9" t="n">
         <v>1.1</v>
@@ -2298,40 +2296,40 @@
     </row>
     <row r="36" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G36" s="7" t="n">
         <v>17</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J36" s="7" t="n">
         <v>17</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M36" s="7" t="n">
         <v>8.5</v>
@@ -2339,40 +2337,40 @@
     </row>
     <row r="37" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G37" s="7" t="n">
         <v>17</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J37" s="7" t="n">
         <v>17</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M37" s="7" t="n">
         <v>8.5</v>
@@ -2380,31 +2378,31 @@
     </row>
     <row r="38" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J38" s="9" t="n">
         <v>1</v>
@@ -2415,31 +2413,31 @@
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J39" s="9" t="n">
         <v>1</v>
@@ -2450,31 +2448,31 @@
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J40" s="9" t="n">
         <v>1.5</v>
@@ -2485,31 +2483,31 @@
     </row>
     <row r="41" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>4.5</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G41" s="7" t="n">
         <v>2.2</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J41" s="7" t="n">
         <v>2.2</v>
@@ -2520,31 +2518,31 @@
     </row>
     <row r="42" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>4.5</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G42" s="9" t="n">
         <v>2.3</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J42" s="9" t="n">
         <v>2.3</v>
@@ -2555,31 +2553,31 @@
     </row>
     <row r="43" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>0</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J43" s="9" t="n">
         <v>0</v>
@@ -2590,31 +2588,31 @@
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G44" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J44" s="9" t="n">
         <v>3</v>
@@ -2625,31 +2623,31 @@
     </row>
     <row r="45" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G45" s="7" t="n">
         <v>1.2</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J45" s="7" t="n">
         <v>1.2</v>
@@ -2660,31 +2658,31 @@
     </row>
     <row r="46" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G46" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J46" s="9" t="n">
         <v>0.96</v>
@@ -2695,31 +2693,31 @@
     </row>
     <row r="47" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C47" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G47" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J47" s="9" t="n">
         <v>0.96</v>
@@ -2730,31 +2728,31 @@
     </row>
     <row r="48" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E48" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J48" s="9" t="n">
         <v>0.96</v>
@@ -2765,40 +2763,40 @@
     </row>
     <row r="49" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J49" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M49" s="9" t="n">
         <v>0.96</v>
@@ -2806,40 +2804,40 @@
     </row>
     <row r="50" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J50" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M50" s="9" t="n">
         <v>0.96</v>
@@ -2847,31 +2845,31 @@
     </row>
     <row r="51" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G51" s="9" t="n">
         <v>4</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J51" s="9" t="n">
         <v>6</v>
@@ -2881,19 +2879,19 @@
       <c r="M51" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J53" s="13"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J65" s="13"/>
+      <c r="J65" s="11"/>
     </row>
     <row r="70" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J70" s="14"/>
+      <c r="J70" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J72" s="14"/>
+      <c r="J72" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J74" s="14"/>
+      <c r="J74" s="12"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2916,7 +2914,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M36:M37 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2924,7 +2922,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="13" width="9.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="11" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2940,556 +2938,556 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>126</v>
+      <c r="E1" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="114.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>22</v>
+      <c r="C2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>22</v>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>22</v>
+      <c r="C4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>22</v>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>22</v>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>22</v>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>22</v>
+      <c r="C8" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>22</v>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>22</v>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>22</v>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>22</v>
+      <c r="C12" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>22</v>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>22</v>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>22</v>
+      <c r="C15" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>22</v>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>22</v>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>22</v>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>22</v>
+      <c r="C19" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>22</v>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>22</v>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>22</v>
+      <c r="C22" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>22</v>
+      <c r="C23" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>22</v>
+      <c r="C24" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>22</v>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>22</v>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>22</v>
+      <c r="C27" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>22</v>
+      <c r="C28" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>22</v>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>22</v>
+      <c r="C30" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="15" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>22</v>
+      <c r="C31" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>22</v>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>22</v>
+      <c r="C33" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>22</v>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" s="15" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>22</v>
+      <c r="C35" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>22</v>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>22</v>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>22</v>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>22</v>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>22</v>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="D41" s="15" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>22</v>
+      <c r="C41" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas/estructura/2021.xlsx
+++ b/preguntas/estructura/2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="224">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -57,7 +57,10 @@
     <t xml:space="preserve">wp</t>
   </si>
   <si>
-    <t xml:space="preserve">Subpregunta</t>
+    <t xml:space="preserve">SubPregunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
   </si>
   <si>
     <t xml:space="preserve">ts</t>
@@ -966,10 +969,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -982,6 +985,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="51.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="51.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1024,1859 +1028,1912 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="114.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" s="7" t="n">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="9" t="n">
         <v>3</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="n">
         <v>3.7</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>3.7</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="9" t="n">
         <v>2.7</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="n">
         <v>4.7</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" s="7" t="n">
         <v>2</v>
       </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>4.7</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="9" t="n">
         <v>2.7</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10" s="7" t="n">
         <v>1.5</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="7"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" s="9" t="n">
         <v>2.5</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>4.6</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="7" t="n">
         <v>4.6</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" s="7" t="n">
         <v>2.1</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="7"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>4.6</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>4.6</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="5"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="7"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>4.6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>4.6</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="7" t="n">
         <v>1.5</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="7"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="9" t="n">
         <v>9</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" s="10" t="n">
         <v>2.8</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="10" t="n">
         <v>2.8</v>
       </c>
       <c r="K15" s="5"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="10"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="9" t="n">
         <v>9</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="5"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="9" t="n">
         <v>9</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>2.8</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" s="9" t="n">
         <v>2.8</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="9" t="n">
+        <v>51</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="9" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="9" t="n">
         <v>9</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" s="9" t="n">
         <v>2.4</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J18" s="9" t="n">
         <v>2.4</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7" t="n">
         <v>3</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" s="7" t="n">
         <v>3</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="7" t="n">
+        <v>57</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" s="9" t="n">
         <v>3</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="n">
         <v>2</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J21" s="7" t="n">
         <v>2</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="7"/>
-      <c r="O21" s="2"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="7"/>
+      <c r="P21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J22" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="9" t="n">
+        <v>66</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="9" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G23" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J23" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="9" t="n">
+        <v>67</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="9" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G24" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J24" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="9" t="n">
+        <v>68</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G25" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J25" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G26" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J26" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G27" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J27" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="9" t="n">
+        <v>71</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="9" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G28" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J28" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="9" t="n">
+        <v>72</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="9" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G29" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J29" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="9" t="n">
+        <v>73</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="9" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G30" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J30" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="9" t="n">
+        <v>74</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G31" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J31" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G32" s="9" t="n">
         <v>6</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J32" s="9" t="n">
         <v>6</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="9"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" s="9" t="n">
         <v>2.8</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J33" s="9" t="n">
         <v>2.8</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="9"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G34" s="9" t="n">
         <v>1.1</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J34" s="9" t="n">
         <v>1.1</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="9"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G35" s="9" t="n">
         <v>1.1</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J35" s="9" t="n">
         <v>1.1</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="9"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G36" s="7" t="n">
         <v>17</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J36" s="7" t="n">
         <v>17</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="7" t="n">
         <v>8.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G37" s="7" t="n">
         <v>17</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J37" s="7" t="n">
         <v>17</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="7" t="n">
+        <v>91</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="7" t="n">
         <v>8.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J38" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="9"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J39" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="9"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J40" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="9"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>4.5</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G41" s="7" t="n">
         <v>2.2</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J41" s="7" t="n">
         <v>2.2</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="7"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>4.5</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G42" s="9" t="n">
         <v>2.3</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J42" s="9" t="n">
         <v>2.3</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="9"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>0</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J43" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="9"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G44" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J44" s="9" t="n">
         <v>3</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="9"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G45" s="7" t="n">
         <v>1.2</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J45" s="7" t="n">
         <v>1.2</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="7"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G46" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J46" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="9"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G47" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J47" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="9"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E48" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J48" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="9"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J49" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M49" s="9" t="n">
+        <v>122</v>
+      </c>
+      <c r="L49" s="5"/>
+      <c r="M49" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="9" t="n">
         <v>0.96</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J50" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M50" s="9" t="n">
+        <v>125</v>
+      </c>
+      <c r="L50" s="5"/>
+      <c r="M50" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="9" t="n">
         <v>0.96</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G51" s="9" t="n">
         <v>4</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J51" s="9" t="n">
         <v>6</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="9"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J53" s="11"/>
@@ -2914,7 +2971,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2939,52 +2996,52 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="114.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,23 +3049,23 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,25 +3073,25 @@
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,23 +3099,23 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,25 +3123,25 @@
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
       <c r="B12" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,10 +3149,10 @@
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,391 +3160,391 @@
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
       <c r="B22" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
       <c r="B24" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas/estructura/2021.xlsx
+++ b/preguntas/estructura/2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="225">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -60,16 +60,19 @@
     <t xml:space="preserve">SubPregunta</t>
   </si>
   <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
     <t xml:space="preserve">ts</t>
   </si>
   <si>
     <t xml:space="preserve">ws</t>
   </si>
   <si>
-    <t xml:space="preserve">IIP2021</t>
+    <t xml:space="preserve">Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wf</t>
   </si>
   <si>
     <t xml:space="preserve">Componente 1. Capacidad Institucional</t>
@@ -971,8 +974,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -984,8 +987,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="39.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="51.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="51.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="41.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1031,1909 +1034,2181 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="114.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
+      <c r="A2" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="7"/>
+      <c r="L2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
+      <c r="A3" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="7" t="n">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="7"/>
+      <c r="L3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
+      <c r="A4" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="7"/>
+      <c r="L4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
+      <c r="A5" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5" s="9" t="n">
         <v>3</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
+      <c r="L5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
+      <c r="A6" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="n">
         <v>3.7</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="7"/>
+      <c r="L6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
+      <c r="A7" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>3.7</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="9" t="n">
         <v>2.7</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
+      <c r="L7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
+      <c r="A8" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="n">
         <v>4.7</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="7" t="n">
         <v>2</v>
       </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="7"/>
+      <c r="L8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
+      <c r="A9" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>4.7</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9" s="9" t="n">
         <v>2.7</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
+      <c r="L9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
+      <c r="A10" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10" s="7" t="n">
         <v>1.5</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="7"/>
+      <c r="L10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
+      <c r="A11" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J11" s="9" t="n">
         <v>2.5</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
+      <c r="L11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
+      <c r="A12" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>4.6</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="7" t="n">
         <v>4.6</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" s="7" t="n">
         <v>2.1</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="7"/>
+      <c r="L12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
+      <c r="A13" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>4.6</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>4.6</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="7"/>
+      <c r="L13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
+      <c r="A14" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>4.6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>4.6</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J14" s="7" t="n">
         <v>1.5</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="7"/>
+      <c r="L14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
+      <c r="A15" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="9" t="n">
         <v>9</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="10" t="n">
         <v>2.8</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J15" s="10" t="n">
         <v>2.8</v>
       </c>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="10"/>
+      <c r="L15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
+      <c r="A16" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="9" t="n">
         <v>9</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
+      <c r="L16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="9" t="n">
         <v>9</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>2.8</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17" s="9" t="n">
         <v>2.8</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="9" t="n">
         <v>2.8</v>
       </c>
+      <c r="N17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>14</v>
+      <c r="A18" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="9" t="n">
         <v>9</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G18" s="9" t="n">
         <v>2.4</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J18" s="9" t="n">
         <v>2.4</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
+      <c r="L18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
+      <c r="A19" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G19" s="7" t="n">
         <v>3</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J19" s="7" t="n">
         <v>3</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="7" t="n">
+        <v>58</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="7" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>14</v>
+      <c r="N19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J20" s="9" t="n">
         <v>3</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="9" t="n">
         <v>3</v>
       </c>
+      <c r="N20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>14</v>
+      <c r="A21" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="n">
         <v>2</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J21" s="7" t="n">
         <v>2</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="7"/>
-      <c r="P21" s="2"/>
+      <c r="L21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>14</v>
+      <c r="A22" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J22" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="9" t="n">
+        <v>67</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="1" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>14</v>
+      <c r="A23" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G23" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J23" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="9" t="n">
+        <v>68</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="1" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
+      <c r="A24" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G24" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J24" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>14</v>
+    <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G25" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J25" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>14</v>
+    <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G26" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J26" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="9" t="n">
+        <v>71</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>14</v>
+      <c r="A27" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G27" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J27" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="9" t="n">
+        <v>72</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="1" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>14</v>
+      <c r="A28" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G28" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J28" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="9" t="n">
+        <v>73</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="1" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>14</v>
+    <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G29" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J29" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N29" s="9" t="n">
+        <v>74</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="1" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>14</v>
+    <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G30" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J30" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>14</v>
+    <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G31" s="9" t="n">
         <v>7</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J31" s="9" t="n">
         <v>7</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N31" s="9" t="n">
+        <v>76</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>14</v>
+      <c r="A32" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" s="9" t="n">
         <v>6</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J32" s="9" t="n">
         <v>6</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="9"/>
+      <c r="L32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>14</v>
+      <c r="A33" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" s="9" t="n">
         <v>2.8</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J33" s="9" t="n">
         <v>2.8</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="9"/>
+      <c r="L33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>14</v>
+      <c r="A34" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G34" s="9" t="n">
         <v>1.1</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J34" s="9" t="n">
         <v>1.1</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="9"/>
+      <c r="L34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>14</v>
+      <c r="A35" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" s="9" t="n">
         <v>1.1</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J35" s="9" t="n">
         <v>1.1</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="9"/>
+      <c r="L35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>14</v>
+      <c r="A36" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G36" s="7" t="n">
         <v>17</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J36" s="7" t="n">
         <v>17</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="7" t="n">
+        <v>91</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" s="1" t="n">
         <v>8.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>14</v>
+      <c r="A37" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G37" s="7" t="n">
         <v>17</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J37" s="7" t="n">
         <v>17</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="7" t="n">
+        <v>92</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" s="1" t="n">
         <v>8.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>14</v>
+      <c r="A38" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J38" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="9"/>
+      <c r="L38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
-        <v>14</v>
+      <c r="A39" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J39" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="9"/>
+      <c r="L39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>14</v>
+      <c r="A40" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J40" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="9"/>
+      <c r="L40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>14</v>
+      <c r="A41" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>4.5</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G41" s="7" t="n">
         <v>2.2</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J41" s="7" t="n">
         <v>2.2</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="7"/>
+      <c r="L41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
-        <v>14</v>
+      <c r="A42" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>4.5</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G42" s="9" t="n">
         <v>2.3</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J42" s="9" t="n">
         <v>2.3</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="9"/>
+      <c r="L42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
-        <v>14</v>
+      <c r="A43" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>0</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J43" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="9"/>
+      <c r="L43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
-        <v>14</v>
+      <c r="A44" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G44" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J44" s="9" t="n">
         <v>3</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="9"/>
+      <c r="L44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
-        <v>14</v>
+      <c r="A45" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G45" s="7" t="n">
         <v>1.2</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J45" s="7" t="n">
         <v>1.2</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="7"/>
+      <c r="L45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
-        <v>14</v>
+      <c r="A46" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G46" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J46" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="9"/>
+      <c r="L46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="9" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
-        <v>14</v>
+      <c r="A47" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G47" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J47" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="9"/>
+      <c r="L47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="9" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
-        <v>14</v>
+      <c r="A48" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E48" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J48" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="9"/>
+      <c r="L48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="9" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
-        <v>14</v>
+      <c r="A49" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J49" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L49" s="5"/>
-      <c r="M49" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N49" s="9" t="n">
+        <v>123</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="9" t="n">
         <v>0.96</v>
       </c>
+      <c r="N49" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
-        <v>14</v>
+      <c r="A50" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J50" s="9" t="n">
         <v>0.96</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L50" s="5"/>
-      <c r="M50" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N50" s="9" t="n">
+        <v>126</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="9" t="n">
         <v>0.96</v>
       </c>
+      <c r="N50" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
-        <v>14</v>
+      <c r="A51" s="5" t="n">
+        <v>2021</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G51" s="9" t="n">
         <v>4</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J51" s="9" t="n">
         <v>6</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="9"/>
+      <c r="L51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N51" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J53" s="11"/>
@@ -2971,7 +3246,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2996,52 +3271,52 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="114.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,23 +3324,23 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,25 +3348,25 @@
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3099,23 +3374,23 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,25 +3398,25 @@
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
       <c r="B12" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,10 +3424,10 @@
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,391 +3435,391 @@
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
       <c r="B22" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
       <c r="B24" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas/estructura/2021.xlsx
+++ b/preguntas/estructura/2021.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Humano!$A$1:$D$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Maquina!$B$1:$H$51</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Maquina!$B$1:$H$56</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="255">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -90,12 +90,31 @@
     <t xml:space="preserve">unica</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Determine los acuerdos y/o actos administrativos relacionados con el concepto de innovación Pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Justifique su respuesta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Suba aquí los archivos que justifican su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicador 2. Planeación Estratégica: Existencia dentro de la planeación estratégica de la institución de una relación con el concepto de innovación pública</t>
   </si>
   <si>
     <t xml:space="preserve">Pregunta 2. ¿Existen dentro de la planeación estratégica de la entidad enfoques / líneas / componentes / proyectos / programas o planes en 2020 relacionados con el concepto de innovación pública? </t>
   </si>
   <si>
+    <t xml:space="preserve">2. Determine los enfoques / líneas / componentes / proyectos / 
+programas o planes relacionados con el concepto de innovación Pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Justifique su respuesta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Suba aquí los archivos que justifican su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Variable 2. Recursos Presupuestales</t>
   </si>
   <si>
@@ -108,18 +127,42 @@
     <t xml:space="preserve">valor</t>
   </si>
   <si>
+    <t xml:space="preserve">3. Presupuesto general de funcionamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Suba aquí los archivos que justifican su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Pregunta 4. ¿Cuál fue el valor del presupuesto de funcionamiento ejecutado en temas de innovación pública a 31 de diciembre de 2020?</t>
   </si>
   <si>
+    <t xml:space="preserve">4. Presupuesto general de funcionamiento ejecutado en innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Suba aquí los archivos que justifican su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicador 4. Porcentaje de recursos anuales de inversión ejecutados en temas de innovación pública</t>
   </si>
   <si>
     <t xml:space="preserve">Pregunta 5. ¿Cuál fue el valor del presupuesto de inversión ejecutado a 31 de diciembre de 2020?</t>
   </si>
   <si>
+    <t xml:space="preserve">5. Presupuesto general de inversión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Suba aquí los archivos que justifican su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Pregunta 6. ¿Cuál fue el valor del presupuesto de inversión ejecutado en temas de innovación pública a 31 de diciembre de 2020?</t>
   </si>
   <si>
+    <t xml:space="preserve">6. Presupuesto general de inversión ejecutado en innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Suba aquí los archivos que justifican su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Variable 3. Recursos Humanos</t>
   </si>
   <si>
@@ -129,18 +172,42 @@
     <t xml:space="preserve">Pregunta 7. ¿Cuál fue el número total de funcionarios que trabajaron en su entidad en 2020?</t>
   </si>
   <si>
+    <t xml:space="preserve">7. Total de funcionarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Suba aquí los archivos que justifican su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Pregunta 8. ¿Cuál fue el número total de funcionarios que trabajaron en su entidad en 2020 relacionados con temas de innovación pública?</t>
   </si>
   <si>
+    <t xml:space="preserve">8. Total de funcionarios en innovación por manual de funciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Suba aquí los archivos que justifican su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicador 6. Porcentaje de contratistas dedicados a temas de innovación pública. </t>
   </si>
   <si>
     <t xml:space="preserve">Pregunta 9. ¿Cuál fue el número total de contratistas que trabajaron en su entidad en 2020?</t>
   </si>
   <si>
+    <t xml:space="preserve">9. Total de contratistas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Suba aquí los archivos que justifican su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Pregunta 10. ¿Cuál fue el número total de contratistas que trabajaron en su entidad en 2020 dedicados a temas de innovación pública?</t>
   </si>
   <si>
+    <t xml:space="preserve">10. Total de contratistas en innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Suba aquí los archivos que justifican su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Variable 4. Recursos digitales</t>
   </si>
   <si>
@@ -150,12 +217,24 @@
     <t xml:space="preserve">Pregunta 11. Entre el año 2019 y 2020, ¿Su entidad adquirió recursos digitales como habilitantes de la innovación?</t>
   </si>
   <si>
+    <t xml:space="preserve">11. Determine los recursos digitales adquiridos como habilitantes de la innovación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Justifique su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Pregunta 12. ¿Cuál fue el valor de la inversión realizada por su entidad para la adquisión de recursos digitales para el fortalecimiento de la  innovación entre 2019 y 31 de diciembre de 2020?</t>
   </si>
   <si>
+    <t xml:space="preserve">12. Suba aquí los archivos que justifican su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Pregunta 13. ¿Cuáles recursos digitales se incorporaron entre 2019 y 2020 como habilitantes  para la innovación  en su entidad?</t>
   </si>
   <si>
+    <t xml:space="preserve">13. Suba aquí los archivos que justifican su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Componente 2. Procesos y procedimientos</t>
   </si>
   <si>
@@ -171,10 +250,22 @@
     <t xml:space="preserve">multiple</t>
   </si>
   <si>
+    <t xml:space="preserve">14. ¿Eligió la(s) opción(es) A, B y/u Otra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Suba aquí los archivos que justifican su respuesta.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicador 9. Canales complementarios para la ciudadanía para la identificación de retos o áreas de oportunidad de la entidad. </t>
   </si>
   <si>
     <t xml:space="preserve">Pregunta 15. En 2020, ¿su entidad contó con canales complementarios a "Bogotá te escucha" para que la ciudadanía pudiera identificar retos o áreas de oportunidad de su entidad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. Describa brevemente los canales complementarios que su entidad utilizó entre 2019 y 2020 para que la ciudadanía pudiera identificar retos o áreas de oportunidad de su entidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. Suba aquí los archivos que justifican su respuesta </t>
   </si>
   <si>
     <t xml:space="preserve">Indicador 10. Canales para los funcionarios y/o contratistas para la identificación de retos o áreas de oportunidad. </t>
@@ -792,7 +883,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -829,12 +920,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -972,10 +1075,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:P1048576"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1072,14 +1175,22 @@
       <c r="J2" s="7" t="n">
         <v>0</v>
       </c>
+      <c r="K2" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="114.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2021</v>
       </c>
@@ -1096,30 +1207,36 @@
         <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" s="5"/>
       <c r="L3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>2021</v>
       </c>
@@ -1130,10 +1247,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>7.7</v>
+        <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>24</v>
@@ -1145,19 +1262,25 @@
         <v>25</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5"/>
       <c r="L4" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
@@ -1170,10 +1293,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>7.7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>24</v>
@@ -1182,22 +1305,28 @@
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" s="5"/>
       <c r="L5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -1210,36 +1339,42 @@
         <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="L6" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>2021</v>
       </c>
@@ -1250,34 +1385,40 @@
         <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>7.7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K7" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="L7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="N7" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="M7" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -1290,34 +1431,40 @@
         <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>8.7</v>
+        <v>7.7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="L8" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -1330,34 +1477,40 @@
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>8.7</v>
+        <v>7.7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="J9" s="10" t="n">
         <v>2.7</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="L9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="M9" s="10" t="n">
         <v>2.7</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="N9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
@@ -1370,34 +1523,40 @@
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K10" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="L10" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N10" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -1410,34 +1569,40 @@
         <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>8.7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K11" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="J11" s="10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="L11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N11" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="M11" s="10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
@@ -1450,36 +1615,42 @@
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>4.6</v>
+        <v>8.7</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K12" s="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="L12" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.5</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>2021</v>
       </c>
@@ -1490,36 +1661,42 @@
         <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>4.6</v>
+        <v>8.7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="L13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="M13" s="10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>2021</v>
       </c>
@@ -1530,641 +1707,543 @@
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>4.6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>4.6</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J14" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="7" t="n">
+      <c r="K16" s="9"/>
+      <c r="L16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15" s="10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="E17" s="10" t="n">
         <v>9</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="9" t="n">
+        <v>71</v>
+      </c>
+      <c r="G17" s="7" t="n">
         <v>2.8</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="9" t="n">
+        <v>73</v>
+      </c>
+      <c r="J17" s="7" t="n">
         <v>2.8</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="K17" s="9"/>
       <c r="L17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="9" t="n">
+        <v>73</v>
+      </c>
+      <c r="M17" s="7" t="n">
         <v>2.8</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" s="1" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>9</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="7" t="n">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="J19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9"/>
       <c r="L19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P19" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>9</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>2.8</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K21" s="11"/>
       <c r="L21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P22" s="1" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M21" s="10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" s="8" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>7</v>
+        <v>70</v>
+      </c>
+      <c r="E23" s="12" t="n">
+        <v>9</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="9" t="n">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="G23" s="12" t="n">
+        <v>2.4</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>68</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J23" s="12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K23" s="5"/>
       <c r="L23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="1" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="M23" s="12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="9" t="n">
-        <v>7</v>
+        <v>86</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="K24" s="5" t="s">
+      <c r="J24" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="9" t="n">
-        <v>7</v>
+        <v>89</v>
+      </c>
+      <c r="G25" s="12" t="n">
+        <v>3</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="J25" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" s="5"/>
       <c r="L25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="9" t="n">
-        <v>7</v>
+      <c r="M25" s="12" t="n">
+        <v>3</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="9" t="n">
-        <v>7</v>
+        <v>92</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" s="5"/>
       <c r="L26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="M26" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="G27" s="12" t="n">
         <v>7</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="9" t="n">
+      <c r="J27" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="K27" s="5"/>
       <c r="L27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="9" t="n">
+      <c r="M27" s="12" t="n">
         <v>7</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="P27" s="1" t="n">
         <v>1.4</v>
@@ -2175,99 +2254,95 @@
         <v>2021</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="G28" s="12" t="n">
         <v>7</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="9" t="n">
+      <c r="J28" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="K28" s="5"/>
       <c r="L28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="9" t="n">
+      <c r="M28" s="12" t="n">
         <v>7</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="G29" s="12" t="n">
         <v>7</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="9" t="n">
+      <c r="J29" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="K29" s="5"/>
       <c r="L29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="9" t="n">
+      <c r="M29" s="12" t="n">
         <v>7</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,43 +2350,41 @@
         <v>2021</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="G30" s="12" t="n">
         <v>7</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="9" t="n">
+      <c r="J30" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="K30" s="5"/>
       <c r="L30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="9" t="n">
+      <c r="M30" s="12" t="n">
         <v>7</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>20</v>
@@ -2325,43 +2398,41 @@
         <v>2021</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="G31" s="12" t="n">
         <v>7</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="9" t="n">
+      <c r="J31" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="K31" s="5"/>
       <c r="L31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="9" t="n">
+      <c r="M31" s="12" t="n">
         <v>7</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>20</v>
@@ -2370,343 +2441,363 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="9" t="n">
-        <v>6</v>
+        <v>95</v>
+      </c>
+      <c r="G32" s="12" t="n">
+        <v>7</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" s="9" t="n">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="J32" s="12" t="n">
+        <v>7</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M32" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M32" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="9" t="n">
-        <v>2.8</v>
+        <v>95</v>
+      </c>
+      <c r="G33" s="12" t="n">
+        <v>7</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="9" t="n">
-        <v>2.8</v>
+      <c r="J33" s="12" t="n">
+        <v>7</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="9" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M33" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="9" t="n">
-        <v>1.1</v>
+        <v>95</v>
+      </c>
+      <c r="G34" s="12" t="n">
+        <v>7</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="9" t="n">
-        <v>1.1</v>
+      <c r="J34" s="12" t="n">
+        <v>7</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N34" s="5"/>
+      <c r="M34" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="9" t="n">
-        <v>1.1</v>
+        <v>95</v>
+      </c>
+      <c r="G35" s="12" t="n">
+        <v>7</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="9" t="n">
-        <v>1.1</v>
+      <c r="J35" s="12" t="n">
+        <v>7</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M35" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="7" t="n">
-        <v>17</v>
+        <v>95</v>
+      </c>
+      <c r="G36" s="12" t="n">
+        <v>7</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="J36" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K36" s="5"/>
       <c r="L36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="7" t="n">
-        <v>17</v>
+      <c r="M36" s="12" t="n">
+        <v>7</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="7" t="n">
-        <v>17</v>
+        <v>108</v>
+      </c>
+      <c r="G37" s="12" t="n">
+        <v>6</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J37" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" s="5"/>
       <c r="L37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P37" s="1" t="n">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="M37" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="9" t="n">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="G38" s="12" t="n">
+        <v>2.8</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="9" t="n">
-        <v>1</v>
+      <c r="J38" s="12" t="n">
+        <v>2.8</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="9" t="n">
-        <v>1</v>
+      <c r="M38" s="12" t="n">
+        <v>2.8</v>
       </c>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="9" t="n">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="G39" s="12" t="n">
+        <v>1.1</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="9" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="J39" s="12" t="n">
+        <v>1.1</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" s="9" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="M39" s="12" t="n">
+        <v>1.1</v>
       </c>
       <c r="N39" s="5"/>
     </row>
@@ -2715,158 +2806,174 @@
         <v>2021</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E40" s="6" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="9" t="n">
-        <v>1.5</v>
+        <v>115</v>
+      </c>
+      <c r="G40" s="12" t="n">
+        <v>1.1</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="9" t="n">
-        <v>1.5</v>
+      <c r="J40" s="12" t="n">
+        <v>1.1</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="9" t="n">
-        <v>1.5</v>
+      <c r="M40" s="12" t="n">
+        <v>1.1</v>
       </c>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="E41" s="6" t="n">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G41" s="7" t="n">
-        <v>2.2</v>
+        <v>17</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J41" s="7" t="n">
-        <v>2.2</v>
+        <v>17</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M41" s="7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N41" s="5"/>
-    </row>
-    <row r="42" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" s="1" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>25</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="E42" s="6" t="n">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="9" t="n">
-        <v>2.3</v>
+        <v>119</v>
+      </c>
+      <c r="G42" s="7" t="n">
+        <v>17</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="9" t="n">
-        <v>2.3</v>
+        <v>20</v>
+      </c>
+      <c r="J42" s="7" t="n">
+        <v>17</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M42" s="9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N42" s="5"/>
-    </row>
-    <row r="43" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="M42" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" s="1" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C43" s="6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="9" t="n">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="G43" s="12" t="n">
+        <v>1</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="9" t="n">
-        <v>0</v>
+      <c r="J43" s="12" t="n">
+        <v>1</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="9" t="n">
-        <v>0</v>
+      <c r="M43" s="12" t="n">
+        <v>1</v>
       </c>
       <c r="N43" s="5"/>
     </row>
@@ -2875,198 +2982,198 @@
         <v>2021</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C44" s="6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G44" s="9" t="n">
-        <v>3</v>
+        <v>126</v>
+      </c>
+      <c r="G44" s="12" t="n">
+        <v>1</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="9" t="n">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="J44" s="12" t="n">
+        <v>1</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44" s="9" t="n">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="M44" s="12" t="n">
+        <v>1</v>
       </c>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C45" s="6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G45" s="7" t="n">
-        <v>1.2</v>
+        <v>129</v>
+      </c>
+      <c r="G45" s="12" t="n">
+        <v>1.5</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="7" t="n">
-        <v>1.2</v>
+      <c r="J45" s="12" t="n">
+        <v>1.5</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="7" t="n">
-        <v>1.2</v>
+      <c r="M45" s="12" t="n">
+        <v>1.5</v>
       </c>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C46" s="6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E46" s="6" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="9" t="n">
-        <v>0.96</v>
+        <v>132</v>
+      </c>
+      <c r="G46" s="7" t="n">
+        <v>2.2</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="9" t="n">
-        <v>0.96</v>
+        <v>32</v>
+      </c>
+      <c r="J46" s="7" t="n">
+        <v>2.2</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" s="9" t="n">
-        <v>0.96</v>
+        <v>32</v>
+      </c>
+      <c r="M46" s="7" t="n">
+        <v>2.2</v>
       </c>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C47" s="6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E47" s="6" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G47" s="9" t="n">
-        <v>0.96</v>
+        <v>134</v>
+      </c>
+      <c r="G47" s="12" t="n">
+        <v>2.3</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="9" t="n">
-        <v>0.96</v>
+        <v>32</v>
+      </c>
+      <c r="J47" s="12" t="n">
+        <v>2.3</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" s="9" t="n">
-        <v>0.96</v>
+        <v>32</v>
+      </c>
+      <c r="M47" s="12" t="n">
+        <v>2.3</v>
       </c>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E48" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G48" s="9" t="n">
-        <v>0.96</v>
+        <v>138</v>
+      </c>
+      <c r="G48" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="9" t="n">
-        <v>0.96</v>
+      <c r="J48" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="9" t="n">
-        <v>0.96</v>
+      <c r="M48" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="N48" s="5"/>
     </row>
@@ -3075,158 +3182,352 @@
         <v>2021</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="9" t="n">
-        <v>0.96</v>
+        <v>140</v>
+      </c>
+      <c r="G49" s="12" t="n">
+        <v>3</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="9" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="J49" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K49" s="5"/>
       <c r="L49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="9" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P49" s="1" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M49" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G50" s="9" t="n">
-        <v>0.96</v>
+        <v>143</v>
+      </c>
+      <c r="G50" s="7" t="n">
+        <v>1.2</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="9" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="J50" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K50" s="5"/>
       <c r="L50" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="9" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P50" s="1" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M50" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G51" s="9" t="n">
-        <v>4</v>
+        <v>145</v>
+      </c>
+      <c r="G51" s="12" t="n">
+        <v>0.96</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="9" t="n">
-        <v>6</v>
+      <c r="J51" s="12" t="n">
+        <v>0.96</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="9" t="n">
+      <c r="M51" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="N51" s="5"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J53" s="11"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J65" s="11"/>
+      <c r="F52" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K54" s="5"/>
+      <c r="L54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G55" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K55" s="5"/>
+      <c r="L55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="1" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K56" s="5"/>
+      <c r="L56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J58" s="14"/>
     </row>
     <row r="70" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J70" s="12"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J72" s="12"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J74" s="12"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="J70" s="14"/>
+    </row>
+    <row r="75" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J75" s="15"/>
+    </row>
+    <row r="77" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J77" s="15"/>
+    </row>
+    <row r="79" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J79" s="15"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3254,7 +3555,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="11" width="9.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="14" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3270,556 +3571,556 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>130</v>
+      <c r="E1" s="14" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="114.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>26</v>
+      <c r="A2" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>26</v>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>26</v>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>26</v>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>26</v>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>26</v>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>26</v>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>26</v>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>26</v>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>26</v>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>26</v>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>26</v>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>26</v>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>26</v>
+      <c r="A15" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>26</v>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>26</v>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>26</v>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>26</v>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>26</v>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>26</v>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>26</v>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>26</v>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>26</v>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>26</v>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>26</v>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>26</v>
+      <c r="A27" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>26</v>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>26</v>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>26</v>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>26</v>
+      <c r="A33" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>26</v>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>26</v>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>26</v>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>26</v>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>26</v>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>26</v>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas/estructura/2021.xlsx
+++ b/preguntas/estructura/2021.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Humano!$A$1:$D$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Maquina!$B$1:$H$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Maquina!$B$1:$H$115</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="306">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -130,6 +130,27 @@
     <t xml:space="preserve">3. Presupuesto general de funcionamiento</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Valor del presupuesto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">de funcionamiento </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">3. Suba aquí los archivos que justifican su respuesta. </t>
   </si>
   <si>
@@ -142,6 +163,9 @@
     <t xml:space="preserve">4. Suba aquí los archivos que justifican su respuesta. </t>
   </si>
   <si>
+    <t xml:space="preserve">4. Valor del presupuesto de funcionamiento en innovación</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicador 4. Porcentaje de recursos anuales de inversión ejecutados en temas de innovación pública</t>
   </si>
   <si>
@@ -154,6 +178,9 @@
     <t xml:space="preserve">5. Suba aquí los archivos que justifican su respuesta. </t>
   </si>
   <si>
+    <t xml:space="preserve">5. Valor del presupuesto de inversión</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pregunta 6. ¿Cuál fue el valor del presupuesto de inversión ejecutado en temas de innovación pública a 31 de diciembre de 2020?</t>
   </si>
   <si>
@@ -163,6 +190,9 @@
     <t xml:space="preserve">6. Suba aquí los archivos que justifican su respuesta. </t>
   </si>
   <si>
+    <t xml:space="preserve">6. Valor del presupuesto de inversión en innovación</t>
+  </si>
+  <si>
     <t xml:space="preserve">Variable 3. Recursos Humanos</t>
   </si>
   <si>
@@ -175,6 +205,9 @@
     <t xml:space="preserve">7. Total de funcionarios.</t>
   </si>
   <si>
+    <t xml:space="preserve">7. Conteo de funcionarios</t>
+  </si>
+  <si>
     <t xml:space="preserve">7. Suba aquí los archivos que justifican su respuesta. </t>
   </si>
   <si>
@@ -184,6 +217,9 @@
     <t xml:space="preserve">8. Total de funcionarios en innovación por manual de funciones.</t>
   </si>
   <si>
+    <t xml:space="preserve">8. Conteo de funcionarios en innovación</t>
+  </si>
+  <si>
     <t xml:space="preserve">8. Suba aquí los archivos que justifican su respuesta. </t>
   </si>
   <si>
@@ -196,6 +232,9 @@
     <t xml:space="preserve">9. Total de contratistas.</t>
   </si>
   <si>
+    <t xml:space="preserve">9. Conteo de contratistas</t>
+  </si>
+  <si>
     <t xml:space="preserve">9. Suba aquí los archivos que justifican su respuesta. </t>
   </si>
   <si>
@@ -205,6 +244,9 @@
     <t xml:space="preserve">10. Total de contratistas en innovación.</t>
   </si>
   <si>
+    <t xml:space="preserve">10. Conteo de contratistas en innovación</t>
+  </si>
+  <si>
     <t xml:space="preserve">10. Suba aquí los archivos que justifican su respuesta. </t>
   </si>
   <si>
@@ -223,15 +265,24 @@
     <t xml:space="preserve">11. Justifique su respuesta. </t>
   </si>
   <si>
+    <t xml:space="preserve">11. Suba acá los archivos que justifican su respuesta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pregunta 12. ¿Cuál fue el valor de la inversión realizada por su entidad para la adquisión de recursos digitales para el fortalecimiento de la  innovación entre 2019 y 31 de diciembre de 2020?</t>
   </si>
   <si>
+    <t xml:space="preserve">12. Determine el valor de la inversión realizada para la adquisición de recursos digitales para el fortalecimiento de la innovación</t>
+  </si>
+  <si>
     <t xml:space="preserve">12. Suba aquí los archivos que justifican su respuesta. </t>
   </si>
   <si>
     <t xml:space="preserve">Pregunta 13. ¿Cuáles recursos digitales se incorporaron entre 2019 y 2020 como habilitantes  para la innovación  en su entidad?</t>
   </si>
   <si>
+    <t xml:space="preserve">13. Determine los detalles de los recursos digitales incorporados como habilitantes para la innovación</t>
+  </si>
+  <si>
     <t xml:space="preserve">13. Suba aquí los archivos que justifican su respuesta. </t>
   </si>
   <si>
@@ -250,6 +301,21 @@
     <t xml:space="preserve">multiple</t>
   </si>
   <si>
+    <t xml:space="preserve">14. Determine las actividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Utilizó esta información para la planificación de las acciones de la Entidad (Comités directivos, reuniones de planeación, entre otros)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Utilizó esta información para desarrollar alguna actividad de socialización de cara a la ciudadanía (Talleres o reuniones en las cuales se utiliza esta información como insumo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. No utilizó esta información como insumo de acciones de planificación o desarrollo de alguna actividad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Otra</t>
+  </si>
+  <si>
     <t xml:space="preserve">14. ¿Eligió la(s) opción(es) A, B y/u Otra?</t>
   </si>
   <si>
@@ -274,15 +340,33 @@
     <t xml:space="preserve">Pregunta 16. Entre 2019 y 2020, ¿su entidad utilizó algún canal para que los funcionarios y/o contratistas pudieran identificar retos o áreas de oportunidad de la entidad? </t>
   </si>
   <si>
+    <t xml:space="preserve">16. Describa brevemente los canales que su entidad utilizó entre 2019 y 2020 para que los funcionarios y/o contratistas pudieran identificar retos o áreas de oportunidad de su entidad. *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. Suba aquí los archivos que justifican su respuesta</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.1 A partir de la información recolectada mediante los canales con funcionarios y/o contratistas para la identificación de retos o áreas de oportunidad, ¿su entidad realizó entre 2019 y 2020 alguna de las siguientes actividades? Seleccione las que apliquen. </t>
   </si>
   <si>
+    <t xml:space="preserve">16.1. ¿Eligió la(s) opción(es) A, B, C y/u Otra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1. Suba aquí los archivos que justifican su respuesta.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicador 11. Actividades para la identificación de retos o áreas de oportunidad. </t>
   </si>
   <si>
     <t xml:space="preserve">Pregunta 17. Entre 2019 y 2020, ¿se llevó a cabo algún(os) tipo(s) de actividad(es) para la identificación de retos o áreas de oportunidad de la entidad que usted representa? Seleccione todas las que apliquen. </t>
   </si>
   <si>
+    <t xml:space="preserve">¿Eligió la(s) opción(es) A, B y/o C?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suba aquí los archivos que justifican su respuesta.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Variable 6. Generación de ideas</t>
   </si>
   <si>
@@ -292,15 +376,36 @@
     <t xml:space="preserve">Pregunta 18. Entre 2019 y 2020, ¿su entidad utilizó algún canal para la recepción de ideas de la ciudadanía, encaminadas al mejoramiento de su entidad?</t>
   </si>
   <si>
+    <t xml:space="preserve">Describa brevemente los canales que su entidad utilizó entre 2019 y 2020 para la recepción de ideas de la ciudadanía encaminadas al mejoramiento de la entidad.</t>
+  </si>
+  <si>
     <t xml:space="preserve">18.1 A partir de la información recolectada mediante los canales ciudadanos para la recepción de ideas relacionadas con el mejoramiento de su entidad, ¿su entidad realizó entre 2019 y 2020 alguna de las siguientes actividades? Seleccione las que apliquen.</t>
   </si>
   <si>
+    <t xml:space="preserve">A. Elaboró algún documento sobre la información recopilada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Utilizó dicha información para mejorar las acciones de la entidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. No hizo ninguno de estos usos de dicha información.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Eligió la(s) opción(es) A y/o B?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicador 13. Canales para los funcionarios y/o contratistas para la generación de ideas. </t>
   </si>
   <si>
     <t xml:space="preserve">Pregunta 19. Entre 2019 y 2020, ¿su entidad utilizó algún canal para la recepción de ideas de funcionarios y/o contratistas relacionadas con el mejoramiento de su entidad? </t>
   </si>
   <si>
+    <t xml:space="preserve">Describa brevemente los canales que su entidad utilizó entre 2019 y 2020 para la recepción de ideas de funcionarios y/o contratistas encaminadas al mejoramiento de la entidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suba aquí los archivos que justifican su respuesta</t>
+  </si>
+  <si>
     <t xml:space="preserve">19.1 A partir de la información recolectada mediante los canales con funcionarios y/o contratistas para la recepción de ideas relacionadas con el mejoramiento de su entidad, ¿su entidad realizó entre 2019 y 2020  alguna de las siguientes actividades? Seleccione las que apliquen.</t>
   </si>
   <si>
@@ -310,6 +415,15 @@
     <t xml:space="preserve">Pregunta 20. Entre 2019 y 2020, ¿su entidad realizó alguna actividad para la generación de ideas encaminadas al mejoramiento de su entidad? Seleccione las que apliquen. </t>
   </si>
   <si>
+    <t xml:space="preserve">A. Si, solamente con funcionarios y/o contratistas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Si, solamente con ciudadanía.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Variable 7. Diseño de Innovaciones</t>
   </si>
   <si>
@@ -322,13 +436,22 @@
     <t xml:space="preserve">21.1 ¿Cuántas innovaciones diseñó su entidad entre 2019-2020?</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2 ¿De dónde surgieron las innovaciones diseñadas por su entidad en 2019-2020? [A. Ciudadanía]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2 ¿De dónde surgieron las innovaciones diseñadas por su entidad en 2019-2020? [B. Funcionarios y/o contratistas.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2 ¿De dónde surgieron las innovaciones diseñadas por su entidad en 2019-2020? [C. Exclusivamente del nivel directivo de la entidad.]</t>
+    <t xml:space="preserve">Describa brevemente las innovaciones diseñadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suba aquí la información complementaria para cada una de las innovaciones que pueda evidenciar el diseño de la innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2 ¿De dónde surgieron las innovaciones diseñadas por su entidad en 2019-2020?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2 [A. Ciudadanía]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2 [B. Funcionarios y/o contratistas.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2 [C. Exclusivamente del nivel directivo de la entidad.]</t>
   </si>
   <si>
     <t xml:space="preserve">21.2 ¿De dónde surgieron las innovaciones diseñadas por su entidad en 2019-2020? [D. Ejercicios de co-creación entre ciudadanía y servidores públicos y contratistas]</t>
@@ -340,13 +463,16 @@
     <t xml:space="preserve">21.4. Durante 2019 y 2020, ¿cuántas de las innovaciones diseñadas contaron o cuentan con un prototipo?</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5 Teniendo en cuenta los prototipos de las innovaciones diseñadas, ¿con quién se validaron el (los) prototipo(s)?  [A. Con los usuarios de la innovación]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5 Teniendo en cuenta los prototipos de las innovaciones diseñadas, ¿con quién se validaron el (los) prototipo(s)?  [B. Sin los usuarios de la innovación.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5 Teniendo en cuenta los prototipos de las innovaciones diseñadas, ¿con quién se validaron el (los) prototipo(s)?  [C. El prototipo no se validó.]</t>
+    <t xml:space="preserve">21.5 Teniendo en cuenta los prototipos de las innovaciones diseñadas, ¿con quién se validaron el (los) prototipo(s)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5 [A. Con los usuarios de la innovación]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5 [B. Sin los usuarios de la innovación.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5 [C. El prototipo no se validó.]</t>
   </si>
   <si>
     <t xml:space="preserve">Variable 8. Generación de capacidades</t>
@@ -358,6 +484,9 @@
     <t xml:space="preserve">Pregunta 22. Entre 2019 y 2020, ¿qué actividades relacionadas con la generación de capacidades de innovación desarrolló su entidad con funcionarios y/o contratistas? Seleccione las que apliquen. </t>
   </si>
   <si>
+    <t xml:space="preserve">Justifique su respuesta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Variable 9.  Cultura y liderazgo para la innovación pública</t>
   </si>
   <si>
@@ -394,6 +523,9 @@
     <t xml:space="preserve">26.1 ¿Cuántas innovaciones fueron implementadas o están en proceso de implementación?</t>
   </si>
   <si>
+    <t xml:space="preserve">Describa brevemente las innovaciones implementadas entre 2019 y 2020.</t>
+  </si>
+  <si>
     <t xml:space="preserve">26.2 De las innovaciones implementadas o en proceso de implementación, ¿cuántas fueron validadas con los usuarios?</t>
   </si>
   <si>
@@ -421,6 +553,9 @@
     <t xml:space="preserve">Pregunta 29.   Entre el 2019 y 2020, ¿La entidad tuvo un ahorro de recursos derivado de las innovaciones implementadas?</t>
   </si>
   <si>
+    <t xml:space="preserve">Monto de recursos ahorrados por innovaciones implementadas en los periodos 2019-2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Variable 13. Generación de capacidades en innovación para funcionarios y/o contratistas</t>
   </si>
   <si>
@@ -463,6 +598,9 @@
     <t xml:space="preserve">Pregunta 34. Entre 2019 y 2020, ¿su entidad hizo público algún documento relacionado con el proceso, o los resultados del proceso, de identificación de retos o áreas de oportunidad con la ciudadanía provenientes de los canales y/o actividades mencionados en las preguntas 14, 15  y 17?</t>
   </si>
   <si>
+    <t xml:space="preserve">Suba aquí los archivos que justifican su respuesta. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicador 30. Publicación de la sistematización de información sobre procesos de identificación de problemas con servidores públicos</t>
   </si>
   <si>
@@ -487,9 +625,30 @@
     <t xml:space="preserve">Pregunta 38. Entre 2019 y 2020, ¿su entidad desarrolló algún tipo de documento encaminado a identificar y sistematizar lecciones aprendidas y buenas prácticas sobre las acciones de innovación desarrolladas por su entidad?</t>
   </si>
   <si>
+    <t xml:space="preserve">Sí identificó lecciones aprendidas y buenas prácticas en sus documentos, menciónelas</t>
+  </si>
+  <si>
     <t xml:space="preserve">38.1 ¿Qué hace su entidad con el documento de lecciones aprendidas y buenas prácticas de innovación? </t>
   </si>
   <si>
+    <t xml:space="preserve">A. Se socializa exclusivamente con directivos de la entidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Se socializa exclusivamente con el equipo de trabajo del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Se socializa con los funcionarios y/o contratistas de la entidad., D. Se publica en la página web de la entidad o por medio de una publicación física (libro, revista, folleto, entre otros) entregada a la ciudadanía.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Se publica en la página web de la entidad o por medio de una publicación física (libro, revista, folleto, entre otros) entregada a la ciudadanía.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E. No se hizo ninguna de las anteriores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Eligió la(s) opción(es) A, B, C, D y/u Otra?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicador 34. Documentación de buenas prácticas y lecciones aprendidas de las acciones de la entidad.</t>
   </si>
   <si>
@@ -497,6 +656,18 @@
   </si>
   <si>
     <t xml:space="preserve">39.1 ¿Qué hace con el documento de lecciones aprendidas y buenas prácticas de su entidad? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Se socializa con los funcionarios y/o contratistas de la entidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Se publica en la página web de la entidad o por medio de una publicación física (libro, revista, folleto, entre otros) entregada a la ciudadanía.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. No se hizo ninguna de las anteriores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Eligió la(s) opción(es) A, B, C u Otra?</t>
   </si>
   <si>
     <t xml:space="preserve">Variable 16. Gestión del conocimiento en los Resultados</t>
@@ -802,7 +973,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -832,6 +1003,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -883,7 +1060,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -920,7 +1097,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -928,8 +1109,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1075,10 +1264,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.1" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1368,13 +1557,13 @@
       <c r="M6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>2021</v>
       </c>
@@ -1397,30 +1586,26 @@
         <v>4</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>2021</v>
       </c>
@@ -1437,36 +1622,36 @@
         <v>7.7</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>2021</v>
       </c>
@@ -1483,31 +1668,27 @@
         <v>7.7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="10" t="n">
-        <v>2.7</v>
+      <c r="J9" s="11" t="n">
+        <v>3</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -1523,42 +1704,42 @@
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8.7</v>
+        <v>7.7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>32</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>2021</v>
       </c>
@@ -1569,42 +1750,38 @@
         <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8.7</v>
+        <v>7.7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="10" t="n">
-        <v>2.7</v>
+      <c r="J11" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>2021</v>
       </c>
@@ -1615,37 +1792,37 @@
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="6" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="I12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="7" t="n">
-        <v>1.5</v>
+      <c r="J12" s="11" t="n">
+        <v>2.7</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="7" t="n">
-        <v>1.5</v>
+      <c r="M12" s="11" t="n">
+        <v>2.7</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -1661,37 +1838,33 @@
         <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="6" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="I13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="10" t="n">
-        <v>2.5</v>
+      <c r="J13" s="11" t="n">
+        <v>2.7</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -1707,42 +1880,42 @@
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4.6</v>
+        <v>8.7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M14" s="7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>2021</v>
       </c>
@@ -1753,35 +1926,33 @@
         <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.6</v>
+        <v>8.7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -1797,840 +1968,879 @@
         <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>4.6</v>
+        <v>8.7</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K16" s="9"/>
+      <c r="J16" s="11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="L16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>68</v>
+      <c r="M16" s="11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="10" t="n">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>8.7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="J17" s="11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="11" t="s">
-        <v>75</v>
+    <row r="18" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="10" t="n">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>8.7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="10" t="n">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>78</v>
+        <v>32</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11" t="s">
-        <v>79</v>
+    <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="G22" s="7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="I22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="G21" s="10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P21" s="8" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M23" s="12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P24" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P25" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K26" s="5"/>
       <c r="L26" s="8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="M26" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.8</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="E27" s="11" t="n">
+        <v>9</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="12" t="n">
-        <v>7</v>
+        <v>82</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>2.8</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K27" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="L27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" s="1" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="M27" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>9</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="12" t="n">
-        <v>7</v>
+        <v>82</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>2.8</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K28" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="L28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="1" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="M28" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="E29" s="11" t="n">
+        <v>9</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="12" t="n">
-        <v>7</v>
+        <v>82</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>2.8</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K29" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="L29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="M29" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="6" t="n">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>9</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="12" t="n">
-        <v>7</v>
+        <v>82</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>2.8</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="12" t="n">
-        <v>7</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="7"/>
       <c r="N30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="6" t="n">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <v>9</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="12" t="n">
-        <v>7</v>
+        <v>82</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>2.8</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="12" t="n">
-        <v>7</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J31" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="7"/>
       <c r="N31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="6" t="n">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>9</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="12" t="n">
-        <v>7</v>
+        <v>82</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <v>2.8</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" s="1" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P33" s="1" t="n">
-        <v>1.4</v>
-      </c>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="6" t="n">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="E34" s="11" t="n">
+        <v>9</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="9"/>
+      <c r="L34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34" s="1" t="n">
-        <v>1.4</v>
-      </c>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="6" t="n">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="E35" s="11" t="n">
+        <v>9</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="12" t="n">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="G35" s="11" t="n">
+        <v>2.8</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K35" s="5"/>
+      <c r="J35" s="11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K35" s="8"/>
       <c r="L35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" s="1" t="n">
-        <v>0</v>
+      <c r="M35" s="11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" s="8" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,255 +2848,259 @@
         <v>2021</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="6" t="n">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="E36" s="11" t="n">
+        <v>9</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="12" t="n">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="G36" s="11" t="n">
+        <v>2.8</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K36" s="5"/>
+      <c r="J36" s="11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K36" s="8"/>
       <c r="L36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M36" s="11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="6" t="n">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="E37" s="11" t="n">
+        <v>9</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="12" t="n">
-        <v>6</v>
+        <v>96</v>
+      </c>
+      <c r="G37" s="11" t="n">
+        <v>2.8</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M37" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="N37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="J37" s="11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+    </row>
+    <row r="38" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="6" t="n">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="E38" s="11" t="n">
+        <v>9</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" s="12" t="n">
+        <v>96</v>
+      </c>
+      <c r="G38" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="12" t="n">
+      <c r="J38" s="11" t="n">
         <v>2.8</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N38" s="5"/>
-    </row>
-    <row r="39" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+    </row>
+    <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="6" t="n">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="E39" s="15" t="n">
+        <v>9</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="12" t="n">
-        <v>1.1</v>
+        <v>103</v>
+      </c>
+      <c r="G39" s="15" t="n">
+        <v>2.4</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="12" t="n">
-        <v>1.1</v>
+        <v>84</v>
+      </c>
+      <c r="J39" s="15" t="n">
+        <v>2.4</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N39" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="M39" s="15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="6" t="n">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="E40" s="15" t="n">
+        <v>9</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="12" t="n">
-        <v>1.1</v>
+        <v>103</v>
+      </c>
+      <c r="G40" s="15" t="n">
+        <v>2.4</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="12" t="n">
-        <v>1.1</v>
+        <v>84</v>
+      </c>
+      <c r="J40" s="15" t="n">
+        <v>2.4</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" s="12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N40" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="M40" s="15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E41" s="6" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G41" s="7" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J41" s="7" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="8" t="s">
         <v>20</v>
       </c>
       <c r="M41" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P41" s="1" t="n">
-        <v>8.5</v>
+        <v>3</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" s="14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2894,639 +3108,3047 @@
         <v>2021</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C42" s="6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E42" s="6" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G42" s="7" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J42" s="7" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="8" t="s">
         <v>20</v>
       </c>
       <c r="M42" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P42" s="1" t="n">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+    </row>
+    <row r="43" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+    </row>
+    <row r="44" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+    </row>
+    <row r="45" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+    </row>
+    <row r="46" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+    </row>
+    <row r="47" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+    </row>
+    <row r="48" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G43" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M43" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" s="5"/>
-    </row>
-    <row r="44" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" s="5"/>
-    </row>
-    <row r="45" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N45" s="5"/>
-    </row>
-    <row r="46" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" s="7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N46" s="5"/>
-    </row>
-    <row r="47" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" s="12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" s="12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" s="12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N47" s="5"/>
-    </row>
-    <row r="48" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" s="6" t="n">
+      <c r="I48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="15" t="n">
         <v>3</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G48" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="12" t="n">
-        <v>0</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5"/>
-    </row>
-    <row r="49" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M48" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P48" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C49" s="6" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E49" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" s="12" t="n">
+      <c r="H49" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="12" t="n">
+      <c r="K49" s="5"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+    </row>
+    <row r="50" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" s="12" t="n">
+      <c r="H50" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="N49" s="5"/>
-    </row>
-    <row r="50" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G50" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="7" t="n">
-        <v>1.2</v>
-      </c>
       <c r="K50" s="5"/>
-      <c r="L50" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N50" s="5"/>
-    </row>
-    <row r="51" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L50" s="8"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+    </row>
+    <row r="51" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C51" s="6" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G51" s="12" t="n">
-        <v>0.96</v>
+        <v>116</v>
+      </c>
+      <c r="G51" s="15" t="n">
+        <v>3</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="12" t="n">
-        <v>0.96</v>
+      <c r="J51" s="15" t="n">
+        <v>3</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M51" s="12" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N51" s="5"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
     </row>
     <row r="52" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C52" s="6" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="E52" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G52" s="12" t="n">
-        <v>0.96</v>
+        <v>116</v>
+      </c>
+      <c r="G52" s="15" t="n">
+        <v>3</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="12" t="n">
-        <v>0.96</v>
+      <c r="J52" s="15" t="n">
+        <v>3</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" s="12" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N52" s="5"/>
-    </row>
-    <row r="53" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L52" s="8"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+    </row>
+    <row r="53" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C53" s="6" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="E53" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G53" s="12" t="n">
-        <v>0.96</v>
+        <v>116</v>
+      </c>
+      <c r="G53" s="15" t="n">
+        <v>3</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="12" t="n">
-        <v>0.96</v>
+      <c r="J53" s="15" t="n">
+        <v>3</v>
       </c>
       <c r="K53" s="5"/>
-      <c r="L53" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" s="12" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N53" s="5"/>
-    </row>
-    <row r="54" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L53" s="8"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+    </row>
+    <row r="54" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C54" s="6" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="E54" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G54" s="12" t="n">
-        <v>0.96</v>
+        <v>116</v>
+      </c>
+      <c r="G54" s="15" t="n">
+        <v>3</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="12" t="n">
-        <v>0.96</v>
+      <c r="J54" s="15" t="n">
+        <v>3</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" s="12" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N54" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P54" s="1" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L54" s="8"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+    </row>
+    <row r="55" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C55" s="6" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G55" s="12" t="n">
-        <v>0.96</v>
+        <v>121</v>
+      </c>
+      <c r="G55" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="12" t="n">
-        <v>0.96</v>
+        <v>84</v>
+      </c>
+      <c r="J55" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="K55" s="5"/>
-      <c r="L55" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" s="12" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" s="1" t="n">
-        <v>0.96</v>
-      </c>
+      <c r="L55" s="8"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
     </row>
     <row r="56" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
         <v>2021</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G56" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J56" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" s="5"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+    </row>
+    <row r="57" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J57" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" s="5"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+    </row>
+    <row r="58" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J58" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" s="5"/>
+      <c r="L58" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M58" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O58" s="15"/>
+      <c r="P58" s="13"/>
+    </row>
+    <row r="59" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J59" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" s="5"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O59" s="15"/>
+      <c r="P59" s="13"/>
+    </row>
+    <row r="60" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K60" s="5"/>
+      <c r="L60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O60" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="14" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K61" s="5"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+    </row>
+    <row r="62" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+    </row>
+    <row r="63" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="14" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O65" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K66" s="5"/>
+      <c r="L66" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N66" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="6" t="n">
+      <c r="O66" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G67" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K67" s="5"/>
+      <c r="L67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="14" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K68" s="5"/>
+      <c r="L68" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" s="14" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+    </row>
+    <row r="70" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O70" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="14" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K71" s="5"/>
+      <c r="L71" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K72" s="5"/>
+      <c r="L72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O72" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G73" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J73" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K73" s="5"/>
+      <c r="L73" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M73" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+    </row>
+    <row r="74" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G74" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J74" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K74" s="5"/>
+      <c r="L74" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M74" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+    </row>
+    <row r="75" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G75" s="15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K75" s="5"/>
+      <c r="L75" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N75" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+    </row>
+    <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G76" s="15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K76" s="5"/>
+      <c r="L76" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N76" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+    </row>
+    <row r="77" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G77" s="15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K77" s="5"/>
+      <c r="L77" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N77" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+    </row>
+    <row r="78" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G78" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="K78" s="5"/>
+      <c r="L78" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O78" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" s="14" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G79" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="K79" s="5"/>
+      <c r="L79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="N79" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+    </row>
+    <row r="80" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G80" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="K80" s="5"/>
+      <c r="L80" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="N80" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+    </row>
+    <row r="81" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G81" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="K81" s="5"/>
+      <c r="L81" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+    </row>
+    <row r="82" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E82" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G82" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="K82" s="5"/>
+      <c r="L82" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O82" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" s="14" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E83" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G83" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="K83" s="5"/>
+      <c r="L83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="N83" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+    </row>
+    <row r="84" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E84" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G84" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" s="5"/>
+      <c r="L84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+    </row>
+    <row r="85" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E85" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G85" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" s="5"/>
+      <c r="L85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+    </row>
+    <row r="86" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G86" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" s="5"/>
+      <c r="L86" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M86" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+    </row>
+    <row r="87" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E87" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G87" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K87" s="5"/>
+      <c r="L87" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M87" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N87" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+    </row>
+    <row r="88" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G88" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K88" s="5"/>
+      <c r="L88" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N88" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+    </row>
+    <row r="89" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E89" s="6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G89" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K89" s="5"/>
+      <c r="L89" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M89" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N89" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+    </row>
+    <row r="90" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E90" s="6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G90" s="15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J90" s="15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K90" s="5"/>
+      <c r="L90" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M90" s="15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N90" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+    </row>
+    <row r="91" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E56" s="6" t="n">
+      <c r="D91" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E91" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G91" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" s="5"/>
+      <c r="L91" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M91" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+    </row>
+    <row r="92" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G92" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" s="5"/>
+      <c r="L92" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M92" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+    </row>
+    <row r="93" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E93" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G93" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K93" s="5"/>
+      <c r="L93" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M93" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O93" s="13"/>
+      <c r="P93" s="13"/>
+    </row>
+    <row r="94" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G94" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K94" s="5"/>
+      <c r="L94" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M94" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+    </row>
+    <row r="95" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C95" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G56" s="12" t="n">
+      <c r="F95" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G95" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K95" s="5"/>
+      <c r="L95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M95" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N95" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+    </row>
+    <row r="96" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G96" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K96" s="5"/>
+      <c r="L96" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M96" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N96" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+    </row>
+    <row r="97" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G97" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K97" s="5"/>
+      <c r="L97" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M97" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N97" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+    </row>
+    <row r="98" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E98" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G98" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K98" s="5"/>
+      <c r="L98" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M98" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N98" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+    </row>
+    <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C99" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E99" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G99" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K99" s="5"/>
+      <c r="L99" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M99" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N99" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="O99" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P99" s="14" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E100" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G100" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K100" s="5"/>
+      <c r="L100" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M100" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N100" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+    </row>
+    <row r="101" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E101" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G101" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I101" s="8"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+    </row>
+    <row r="102" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E102" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G102" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I102" s="8"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+    </row>
+    <row r="103" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E103" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G103" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I103" s="8"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+    </row>
+    <row r="104" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E104" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G104" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I104" s="8"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+    </row>
+    <row r="105" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E105" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G105" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I105" s="8"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+    </row>
+    <row r="106" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E106" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G106" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I106" s="8"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+    </row>
+    <row r="107" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E107" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G107" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I107" s="8"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+    </row>
+    <row r="108" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C108" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E108" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G108" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J108" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K108" s="5"/>
+      <c r="L108" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M108" s="15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N108" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O108" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P108" s="14" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="0"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L109" s="8"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+    </row>
+    <row r="110" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="0"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="O110" s="14"/>
+      <c r="P110" s="14"/>
+    </row>
+    <row r="111" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="0"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+    </row>
+    <row r="112" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="0"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="O112" s="14"/>
+      <c r="P112" s="14"/>
+    </row>
+    <row r="113" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="0"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14"/>
+    </row>
+    <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="0"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14"/>
+    </row>
+    <row r="115" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C115" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E115" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G115" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="H56" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="12" t="n">
+      <c r="H115" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J115" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" s="12" t="n">
+      <c r="K115" s="5"/>
+      <c r="L115" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M115" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="N56" s="5"/>
-    </row>
-    <row r="58" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J58" s="14"/>
-    </row>
-    <row r="70" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J70" s="14"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J75" s="15"/>
-    </row>
-    <row r="77" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J77" s="15"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J79" s="15"/>
+      <c r="N115" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O115" s="13"/>
+      <c r="P115" s="13"/>
+    </row>
+    <row r="117" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J117" s="17"/>
+    </row>
+    <row r="129" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J129" s="17"/>
+    </row>
+    <row r="134" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J134" s="18"/>
+    </row>
+    <row r="136" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J136" s="18"/>
+    </row>
+    <row r="138" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J138" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3555,7 +6177,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="14" width="9.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="17" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3571,555 +6193,555 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>160</v>
+      <c r="E1" s="17" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="114.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="A2" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="A15" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="A27" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="100.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="14" t="s">
+      <c r="A33" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="E35" s="14" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="E37" s="14" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="E38" s="14" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="E39" s="14" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="E40" s="14" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="E41" s="14" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="E41" s="17" t="s">
         <v>32</v>
       </c>
     </row>
